--- a/Company name mapping.xlsx
+++ b/Company name mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapasquino/Desktop/MIT_classes/Analytics_Lab/Project/analyticslab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F60BA0-2B93-A34D-8CEB-A2B3444C848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B0BBD5-EE33-5347-B7B1-C0F4B1B2D3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{6F8590E1-7B83-6F4D-96E1-A8D0BEEBECF3}"/>
   </bookViews>
